--- a/Listado_EMPLEADOS.xlsx
+++ b/Listado_EMPLEADOS.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>CODIGO</t>
+  </si>
   <si>
     <t>NOMBRE</t>
   </si>
@@ -19,7 +22,79 @@
     <t>TELEFONO</t>
   </si>
   <si>
+    <t>OCUPACION</t>
+  </si>
+  <si>
+    <t>ANTIGUEDAD</t>
+  </si>
+  <si>
+    <t>MOTIVO</t>
+  </si>
+  <si>
+    <t>FECHA NACIMIENTO</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>HiJOS</t>
+  </si>
+  <si>
+    <t>EDAD</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>JORNAL</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>Analia Riveros</t>
+  </si>
+  <si>
+    <t>+595891890161</t>
+  </si>
+  <si>
+    <t>consultor</t>
+  </si>
+  <si>
+    <t>20/12/2018</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>10/12/2018</t>
+  </si>
+  <si>
+    <t>sdfs sdf sdf sd</t>
+  </si>
+  <si>
+    <t>TERCERIZADO</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>Luis Oviedo</t>
+  </si>
+  <si>
+    <t>+595981890161</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>sdfs sdf sdf sd1</t>
+  </si>
+  <si>
+    <t>FIJO</t>
   </si>
 </sst>
 </file>
@@ -65,26 +140,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>595981890161</v>
+      <c r="J2" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_EMPLEADOS.xlsx
+++ b/Listado_EMPLEADOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>CODIGO</t>
   </si>
@@ -52,46 +52,22 @@
     <t>345</t>
   </si>
   <si>
-    <t>Analia Riveros</t>
-  </si>
-  <si>
-    <t>+595891890161</t>
+    <t>Luis Enrique</t>
+  </si>
+  <si>
+    <t>0981890161</t>
   </si>
   <si>
     <t>consultor</t>
   </si>
   <si>
-    <t>20/12/2018</t>
+    <t>NaN/NaN/NaN</t>
   </si>
   <si>
     <t>undefined</t>
   </si>
   <si>
-    <t>10/12/2018</t>
-  </si>
-  <si>
     <t>sdfs sdf sdf sd</t>
-  </si>
-  <si>
-    <t>TERCERIZADO</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Luis Oviedo</t>
-  </si>
-  <si>
-    <t>+595981890161</t>
-  </si>
-  <si>
-    <t>07/08/2018</t>
-  </si>
-  <si>
-    <t>06/11/2018</t>
-  </si>
-  <si>
-    <t>sdfs sdf sdf sd1</t>
   </si>
   <si>
     <t>FIJO</t>
@@ -140,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -204,60 +180,22 @@
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>80000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_EMPLEADOS.xlsx
+++ b/Listado_EMPLEADOS.xlsx
@@ -11,66 +11,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>CODIGO</t>
   </si>
   <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>TELEFONO</t>
+    <t>FECHA INGRESO</t>
+  </si>
+  <si>
+    <t>NOMBRES</t>
+  </si>
+  <si>
+    <t>APELLIDOS</t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>FECHA NACIMIENTO</t>
+  </si>
+  <si>
+    <t>EDAD</t>
+  </si>
+  <si>
+    <t>NACIONALIDAD</t>
+  </si>
+  <si>
+    <t>MANO DIESTRA</t>
+  </si>
+  <si>
+    <t>ESTADO CIVIL</t>
   </si>
   <si>
     <t>OCUPACION</t>
   </si>
   <si>
-    <t>ANTIGUEDAD</t>
-  </si>
-  <si>
-    <t>MOTIVO</t>
-  </si>
-  <si>
-    <t>FECHA NACIMIENTO</t>
+    <t>NRO HIJOS</t>
+  </si>
+  <si>
+    <t>EMAILS</t>
+  </si>
+  <si>
+    <t>CARGO</t>
+  </si>
+  <si>
+    <t>TALLA CALZADO</t>
+  </si>
+  <si>
+    <t>TALLA PANTALON</t>
+  </si>
+  <si>
+    <t>TALLA CAMISA</t>
+  </si>
+  <si>
+    <t>NIVEL EDUCATIVO</t>
+  </si>
+  <si>
+    <t>GRADO ACADEMICO APROBADO</t>
+  </si>
+  <si>
+    <t>ANTIGUEDAD AÑO</t>
+  </si>
+  <si>
+    <t>ANTIGUEDAD MES</t>
+  </si>
+  <si>
+    <t>HORARIO ENTRADA</t>
+  </si>
+  <si>
+    <t>HORARIO SALIDA</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO TRABAJO</t>
   </si>
   <si>
     <t>DIRECCION</t>
   </si>
   <si>
-    <t>HiJOS</t>
-  </si>
-  <si>
-    <t>EDAD</t>
-  </si>
-  <si>
-    <t>TIPO</t>
+    <t>CIUDAD</t>
+  </si>
+  <si>
+    <t>BARRIO</t>
+  </si>
+  <si>
+    <t>TELEFONO MOVIL</t>
+  </si>
+  <si>
+    <t>TELEFONO EMERGENCIA</t>
+  </si>
+  <si>
+    <t>TIPO EMPLEADO</t>
   </si>
   <si>
     <t>JORNAL</t>
   </si>
   <si>
+    <t>MOTIVO SALIDA</t>
+  </si>
+  <si>
     <t>345</t>
   </si>
   <si>
+    <t>15/01/2019</t>
+  </si>
+  <si>
     <t>Luis Enrique</t>
   </si>
   <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>1683694</t>
+  </si>
+  <si>
+    <t>16/01/2019</t>
+  </si>
+  <si>
+    <t>Paraguaya</t>
+  </si>
+  <si>
+    <t>ZURDO</t>
+  </si>
+  <si>
+    <t>CASADO</t>
+  </si>
+  <si>
+    <t>consultor</t>
+  </si>
+  <si>
+    <t>analiapy@hotmail.com</t>
+  </si>
+  <si>
+    <t>jefe</t>
+  </si>
+  <si>
+    <t>ANALFABETA</t>
+  </si>
+  <si>
+    <t>Universitario</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>sdfs sdf sdf sd</t>
+  </si>
+  <si>
+    <t>lambare</t>
+  </si>
+  <si>
+    <t>solares</t>
+  </si>
+  <si>
     <t>0981890161</t>
   </si>
   <si>
-    <t>consultor</t>
-  </si>
-  <si>
-    <t>NaN/NaN/NaN</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>sdfs sdf sdf sd</t>
+    <t>0981114610</t>
   </si>
   <si>
     <t>FIJO</t>
+  </si>
+  <si>
+    <t>cansancio</t>
   </si>
 </sst>
 </file>
@@ -116,13 +230,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -159,43 +273,169 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="n">
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="1" t="n">
         <v>80000</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_EMPLEADOS.xlsx
+++ b/Listado_EMPLEADOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>CODIGO</t>
   </si>
@@ -115,9 +115,6 @@
     <t>345</t>
   </si>
   <si>
-    <t>15/01/2019</t>
-  </si>
-  <si>
     <t>Luis Enrique</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
   </si>
   <si>
     <t>1683694</t>
-  </si>
-  <si>
-    <t>16/01/2019</t>
   </si>
   <si>
     <t>Paraguaya</t>
@@ -191,9 +185,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt formatCode="#,##0.00; (#,##0.00); -" numFmtId="164"/>
     <numFmt formatCode="#,##0; (#,##0); -" numFmtId="165"/>
+    <numFmt formatCode="[$-409]m/d/yy" numFmtId="166"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -220,10 +215,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="165"/>
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="166"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -341,47 +337,47 @@
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3">
+        <v>43480</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
+      <c r="G2" s="3">
+        <v>43481</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>43</v>
@@ -393,10 +389,10 @@
         <v>34</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U2" s="1" t="n">
         <v>3</v>
@@ -405,37 +401,37 @@
         <v>2</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AF2" s="1" t="n">
         <v>80000</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
